--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmfer\Google Drive\INSPER_\2020.2\Ciência dos Dados\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\insper\2 semestre\espelho_cdados\projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F2AEE-6B4D-43FF-9AF7-94B3F9384CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1478,7 +1477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1554,9 +1553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1594,7 +1593,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1629,23 +1628,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1681,26 +1663,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1873,20 +1838,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="255.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,1502 +1859,1952 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -3401,684 +3816,684 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>

--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\insper\2 semestre\espelho_cdados\projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmfer\Google Drive\INSPER_\2020.2\Ciência dos Dados\Projeto 1\Projeto_1_CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEDF82-A93B-4692-8F73-1409BF02B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1477,7 +1478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1553,9 +1554,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1593,7 +1594,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1628,6 +1629,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1663,9 +1681,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1838,20 +1873,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1875,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1907,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1955,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2003,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2019,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2035,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2051,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2075,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2107,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2115,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2131,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2179,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2187,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2195,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2203,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2227,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2235,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2251,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2259,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2267,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2275,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2283,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2291,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2299,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2315,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2323,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2331,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2339,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2347,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2371,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2395,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2403,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2419,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2427,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2435,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2451,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2475,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2483,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2499,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2515,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2523,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2539,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2555,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2563,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2571,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2579,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2595,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2603,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2611,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2619,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2627,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2643,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2651,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2667,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2675,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2683,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2707,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2715,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2731,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2739,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2747,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2755,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2763,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2771,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2779,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2787,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2795,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2803,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2811,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2827,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2835,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2843,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2851,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2875,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2883,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2891,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2899,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2915,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2923,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2931,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2939,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2947,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2955,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2963,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -2971,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -2979,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -2987,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2995,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3003,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3027,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3051,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3059,754 +3094,1204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3816,684 +4301,684 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>

--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmfer\Google Drive\INSPER_\2020.2\Ciência dos Dados\Projeto 1\Projeto_1_CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\insper\2 semestre\espelho_cdados\projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEDF82-A93B-4692-8F73-1409BF02B52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="471">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1474,11 +1473,121 @@
   <si>
     <t>Relevância</t>
   </si>
+  <si>
+    <t>gente, namoral que ninguém kkkk, mas ninguém percebeu que o design do ipad air é exatamente, tipo exatamente igual ao ipad pro first gen #applevent #ipadair</t>
+  </si>
+  <si>
+    <t>eita, 270 dólares de diferença do ipad novo pro ipad air novo, nossa</t>
+  </si>
+  <si>
+    <t>@jpcuenca em duas ou três ocasiões nos últimos anos tb fiz esse movimento, mas voltei pro chrome pela conveniência.  tudo lá: senhas automáticas, bookmarks, roda em pc, android, ipad... 
+a velha troca de privacidade por conveniência.</t>
+  </si>
+  <si>
+    <t>mais uma verdadeira máquina de performance! se estás à procura de um tablet novo, tens de olhar para o apple ipad air! 
+#apple #ipad #appleipadair #4gnews
+https://t.co/u0jiofwahw</t>
+  </si>
+  <si>
+    <t>mds 10 mil reais um ipad pro ta loco, nunca q vou trocar</t>
+  </si>
+  <si>
+    <t>o ipad pro 2018 vendo o lançamento do ipad air #appleevent https://t.co/l4xmixsldv</t>
+  </si>
+  <si>
+    <t>o ipad air novo é igual o ipad pro de 2018 , q é tipo, o sonho molhado de quem desenha. bicho com potência de noitebook, mas n vai ser mais barato... e pelo q to vendo a potência ou é igual ou menor??? então tipo, pra q?????</t>
+  </si>
+  <si>
+    <t>ipad air parece o pro mas tá bonitão essas cores</t>
+  </si>
+  <si>
+    <t>@celo_guerreiro o a14 é um processador excelente. tem muito mais poder de fogo do que a maioria do usuários jamais precisará. eu adoro meu ipad pro. chego a ficar irritado quando uso o laptop. pra mim não tem volta.</t>
+  </si>
+  <si>
+    <t>@laurarroz tem um app que você espelha a tela do ipad/iphone pro pc. aí depois você tem que configurar usando um programa chamado “streamlabs obs” que funciona como um photoshop onde você vai colocando moldura, web cam, tela do ipad, etc. me chama na dm que eu te ajudo depois</t>
+  </si>
+  <si>
+    <t>rt @gizmodobr: o ipad air ganhou visual e recursos do seu irmão mais caro, o ipad pro. ele chega com preços a partir de r$ 7 mil.
+já o ipa…</t>
+  </si>
+  <si>
+    <t>estou achando o novo ipad air muito mais vantajoso que o ipad pro, tudo que tem no pro de diferença praticamente não faz diferença nenhuma pra um soft user https://t.co/jmy7qjckhu</t>
+  </si>
+  <si>
+    <t>@hopechiid dependendo do preço vale mais a pena comprar um ipad pro(sonho de consumo)</t>
+  </si>
+  <si>
+    <t>fui ver o evento da senhora apple, que fez simplesmente um update no ipad pro e no air com preços altos, e duas versões do apple watch. ai ai essa apple 🤡🤡🤡</t>
+  </si>
+  <si>
+    <t>@caroliscaroles eu queria pra usar so com o algoriddim djay pro mas eu ia ter que pegar um ipad air ou ipad pro pra usar esse app</t>
+  </si>
+  <si>
+    <t>novo ipad air possui design do ipad pro, usb-c e chip apple a14 saiba mais: https://t.co/ulikfalgdv https://t.co/9solkjjrug</t>
+  </si>
+  <si>
+    <t>novo ipad air tem design do ipad pro, usb-c e chip apple a14 | gadgets | tecnoblog https://t.co/txmwngsf9y</t>
+  </si>
+  <si>
+    <t>@matheusborrba subiram o preço do ipad pro, de 8,5k pra 10k. apple watches também estão mais caros!</t>
+  </si>
+  <si>
+    <t>iphone 11 pro (u$999) = r$6.999
+ipad air 4 (u$599) = r$6.999
+o 11 foi lançado no ano passado. tenho é medo do preço do 12.
+#appleevent</t>
+  </si>
+  <si>
+    <t>quem leva a melhor entre o novo ipad air e o ipad pro de 11 polegadas? – https://t.co/rmajjhll5c... (https://t.co/iyj46pj8zv)</t>
+  </si>
+  <si>
+    <t>@dino_galactico @_patione grazadeus entre o air e o ipad pro 2 (o com a caneta q carrega magneticamente) eu ainda to mais pra esse. pq se não ia ser uma sofrencia do krl</t>
+  </si>
+  <si>
+    <t>não acredito que meteram touch id no novo ipad!! não se podiam ter lembrado disso também qnd lançaram o pro!??</t>
+  </si>
+  <si>
+    <t>novo ipad air é anunciado pela apple - tablet lembra o ipad pro -&amp;gt; https://t.co/thqmd6k0rk #apple #ipadair2020</t>
+  </si>
+  <si>
+    <t>sem condições @apple você lançar o ipad air por quase o mesmo preço do pro aqui no brasil.</t>
+  </si>
+  <si>
+    <t>nunca achei graça em ipad, mas esses pro e air tem mexido comigo 😹 #appleevent</t>
+  </si>
+  <si>
+    <t>faz favor de n ficar comparando artista q desenha pelo celular e artista que tem ipad pro</t>
+  </si>
+  <si>
+    <t>achei louvável o novo ipad air ter basicamente tudo que o ipad pro tem. não é capado, som dos dois lados, touch id no botão liga/desliga ao invés do face id, apple pencil que carrega na lateral...muito bom.</t>
+  </si>
+  <si>
+    <t>@gabrielarxujo @in_brgomes @ayado__ não fala assim do ipad pro 10/24</t>
+  </si>
+  <si>
+    <t>novo ipad air tem design do ipad pro, usb-c e chip apple a14 https://t.co/fcvvcevmlt</t>
+  </si>
+  <si>
+    <t>rt @claysbar: o ipad pro 2018 vendo o lançamento do ipad air #appleevent https://t.co/l4xmixsldv</t>
+  </si>
+  <si>
+    <t>será que meu ipad vaia atualizar pro ios 14???
+ https://t.co/ax0mweso6h</t>
+  </si>
+  <si>
+    <t>a14, type-c, design do ipad pro porém mais fino... colorido... https://t.co/4ihsdu7ngd</t>
+  </si>
+  <si>
+    <t>eu tinha feito um@audio todo lindo@pro 3m da joalin mas ficou no meu ipad q quebrou e vai ter q trocad por uk@novo</t>
+  </si>
+  <si>
+    <t>alguem me da 8 mil pra eu poder comprar um ipad pro pfv nunca pedi nada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1554,9 +1663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1594,7 +1703,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1629,23 +1738,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1681,26 +1773,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1873,20 +1948,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B500" sqref="B500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1969,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1902,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1958,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1974,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1990,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1998,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2038,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2054,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2078,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2126,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2134,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2142,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2150,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2158,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2166,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2182,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2190,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2198,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2206,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2214,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2222,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2230,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2246,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2254,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2270,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2278,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2286,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2294,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2302,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2310,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2318,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2334,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2342,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2366,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2382,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2390,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2398,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2406,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2414,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2422,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2430,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2438,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2446,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2454,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2462,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2470,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2478,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2486,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2494,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2502,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2510,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2518,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2526,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2534,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2542,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2550,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2558,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2566,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2574,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2582,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2590,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2598,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2606,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2614,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2622,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2630,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2638,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2646,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2654,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2662,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2670,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2678,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2686,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2694,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2702,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2710,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2718,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2726,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2734,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2742,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2750,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2758,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2766,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2774,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2782,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2790,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -2798,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -2806,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2814,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2822,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2830,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -2838,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -2846,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -2854,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2862,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2870,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -2878,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -2886,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -2894,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -2902,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -2910,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -2918,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -2926,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -2934,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -2942,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -2950,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -2958,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -2966,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -2974,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -2982,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -2990,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -2998,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3006,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3014,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3022,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3030,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3038,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3046,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3054,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3062,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3070,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3078,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3086,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3094,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3102,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3110,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3118,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3126,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3134,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3142,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3150,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3158,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3166,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3174,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3182,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3190,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3198,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3206,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3214,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3222,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3230,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3238,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3246,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3254,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3262,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3270,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3278,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3286,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3294,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3302,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3310,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3318,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3326,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3334,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3342,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3350,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3358,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3366,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3374,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3382,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3390,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3398,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3406,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3414,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3422,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3430,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3438,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3446,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3454,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3462,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3470,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3478,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3486,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3494,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3502,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3510,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3518,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3526,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3534,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3542,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3550,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3558,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3566,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3574,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3582,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3590,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3598,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3606,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3614,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3622,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3630,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3638,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3646,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3654,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3662,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3670,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3678,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3686,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3694,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3702,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3710,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3718,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3726,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3734,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3742,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3750,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3758,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3766,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3774,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3782,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3790,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -3798,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -3806,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -3814,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -3822,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -3830,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -3838,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -3846,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -3854,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -3862,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -3870,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -3878,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -3886,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -3894,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -3902,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -3910,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -3918,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -3926,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -3934,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -3942,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -3950,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -3958,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -3966,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -3974,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -3982,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -3990,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -3998,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -4006,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -4014,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -4022,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -4030,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -4038,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -4046,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -4054,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -4062,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -4070,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -4078,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -4086,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -4094,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -4102,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -4110,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -4118,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -4126,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -4134,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -4142,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -4150,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -4158,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -4166,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -4174,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -4182,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -4190,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -4198,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -4206,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -4214,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -4222,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -4230,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -4238,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -4246,7 +4321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -4254,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -4262,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -4270,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -4278,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -4286,11 +4361,1611 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
       <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>389</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>383</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>380</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>358</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>299</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>66</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>360</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>406</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>143</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>437</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>366</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>224</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>378</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>178</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>438</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>315</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>439</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>127</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>234</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>124</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>440</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>417</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>68</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>225</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>94</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>217</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>80</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>441</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>442</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>443</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>118</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>444</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>77</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>130</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>155</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>212</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>431</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>445</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>325</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>204</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>409</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>365</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>158</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>248</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>250</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>446</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>57</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>397</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>349</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>368</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>447</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>361</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>208</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>140</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>92</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>262</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>292</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>448</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>2</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>126</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>201</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>256</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>374</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>408</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>449</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>333</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>320</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>44</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>100</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>450</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>451</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>233</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>429</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>115</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>407</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>452</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>330</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>304</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>364</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>419</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>453</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>181</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>231</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>89</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>101</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>418</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>454</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>50</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>455</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>354</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>432</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>295</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>160</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>194</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>412</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>36</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>260</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>171</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>257</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>196</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>307</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>338</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>456</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>258</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>169</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>369</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>457</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>167</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>146</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>430</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>34</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>251</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>322</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>427</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>237</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>242</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>133</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>253</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>458</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>459</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>305</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>144</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>40</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>310</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>99</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>229</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>245</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>62</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>387</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>65</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>460</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>26</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>318</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>461</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>116</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>350</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>462</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>340</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>277</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>17</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>218</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>463</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>239</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>283</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>149</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>321</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>371</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>78</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>58</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>41</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>414</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>464</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>228</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>336</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>85</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>72</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>123</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>122</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>298</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>286</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>128</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>327</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>269</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>187</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>266</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>466</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>71</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>56</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>222</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>142</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>139</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>60</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>303</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>191</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>175</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>54</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>394</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>259</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>216</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>154</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>467</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>61</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>107</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>106</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>346</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>468</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>469</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>470</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>393</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>329</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>370</v>
+      </c>
+      <c r="B501">
         <v>1</v>
       </c>
     </row>
@@ -4301,684 +5976,684 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>

--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="64" workbookViewId="0">
-      <selection activeCell="B500" sqref="B500"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11616" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="471">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1613,7 +1613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1636,14 +1636,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5977,688 +5993,1100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A135"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>435</v>
       </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/iPad Pro.xlsx
+++ b/iPad Pro.xlsx
@@ -5995,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6034,7 +6034,7 @@
         <v>304</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
